--- a/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
+++ b/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
   <si>
     <t xml:space="preserve">NEW GUN</t>
   </si>
@@ -61,12 +61,12 @@
     <t xml:space="preserve">+50% Crit Damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Pitchfork</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kenulox</t>
   </si>
   <si>
-    <t xml:space="preserve">Pitchfork</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes</t>
   </si>
   <si>
@@ -223,6 +223,21 @@
     <t xml:space="preserve">Shoots exploding rockets, higher fire rate</t>
   </si>
   <si>
+    <t xml:space="preserve">Trespasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hunt(er)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as The Hunt(er)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muldoc the Anointed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shots pass through shields and armor (but only if target has Flesh bar)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silent Dragon</t>
   </si>
   <si>
@@ -418,10 +433,34 @@
     <t xml:space="preserve">Thumper</t>
   </si>
   <si>
-    <t xml:space="preserve">Same parts as Thumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More projectiles per shot, reduced damage</t>
+    <t xml:space="preserve">6 projectiles per shot, shots have slight aim assist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trash Cannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gettleburger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Gettleburger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanley (mission reward removed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very high Damage Over Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Volt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as 9-Volt except Mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shots connect to enemies, +50% Melee Damage, higher Status Chance and Damage</t>
   </si>
   <si>
     <t xml:space="preserve">Gub</t>
@@ -494,6 +533,18 @@
   </si>
   <si>
     <t xml:space="preserve">+35% Shock Resistance and +35% Shock Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love Thumper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Back Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melee attacks generate Novas on hit</t>
   </si>
   <si>
     <t xml:space="preserve">Venom</t>
@@ -819,21 +870,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="95.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="94.47"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,10 +934,10 @@
       </c>
     </row>
     <row r="3" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1128,10 +1179,10 @@
       </c>
     </row>
     <row r="14" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1158,7 +1209,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>74</v>
@@ -1197,14 +1248,14 @@
       </c>
     </row>
     <row r="17" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>84</v>
@@ -1227,7 +1278,7 @@
         <v>88</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>89</v>
@@ -1243,7 +1294,7 @@
       </c>
     </row>
     <row r="19" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="12" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1266,7 +1317,7 @@
       </c>
     </row>
     <row r="20" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1289,7 +1340,7 @@
       </c>
     </row>
     <row r="21" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -1312,64 +1363,64 @@
       </c>
     </row>
     <row r="22" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="F23" s="9"/>
       <c r="G23" s="10" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>119</v>
@@ -1379,20 +1430,20 @@
       </c>
     </row>
     <row r="25" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>123</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>124</v>
@@ -1405,7 +1456,7 @@
       <c r="A26" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="9" t="s">
@@ -1415,109 +1466,113 @@
         <v>128</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="G26" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B27" s="13" t="s">
         <v>131</v>
       </c>
+      <c r="B27" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="C27" s="9" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" s="8" t="s">
         <v>135</v>
       </c>
+      <c r="B28" s="13" t="s">
+        <v>136</v>
+      </c>
       <c r="C28" s="9" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="10" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="A29" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="B29" s="12" t="s">
+        <v>139</v>
+      </c>
       <c r="C29" s="9" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="G29" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>145</v>
+      <c r="A31" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>27</v>
@@ -1528,56 +1583,52 @@
       </c>
     </row>
     <row r="32" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
-        <v>148</v>
+      <c r="A32" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>151</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="13" t="s">
+      <c r="A33" s="8" t="s">
         <v>154</v>
       </c>
+      <c r="B33" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>156</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="34" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1589,74 +1640,162 @@
       <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>119</v>
-      </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="12" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15" t="s">
+      <c r="B35" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="F37" s="9"/>
+      <c r="G37" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10" t="s">
-        <v>173</v>
+      <c r="F38" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
+++ b/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
   <si>
     <t xml:space="preserve">NEW GUN</t>
   </si>
@@ -277,7 +277,7 @@
     <t xml:space="preserve">Grip, Foregrip, Exhaust</t>
   </si>
   <si>
-    <t xml:space="preserve">Seer (mission reward removed)</t>
+    <t xml:space="preserve">Seer (mission reward removed)(Mayhem 6+)</t>
   </si>
   <si>
     <t xml:space="preserve">Critical hits drop micro grenades</t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Grip, Foregrip, Mag, Elemental</t>
   </si>
   <si>
-    <t xml:space="preserve">Wotan (mission reward removed)</t>
+    <t xml:space="preserve">Wotan (mission reward removed)(Mayhem 6+)</t>
   </si>
   <si>
     <t xml:space="preserve">Fire Rate increases with higher shield count (only after switching to weapon), always spawns with Bipod</t>
@@ -463,6 +463,36 @@
     <t xml:space="preserve">Shots connect to enemies, +50% Melee Damage, higher Status Chance and Damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Freeman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucent Prism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foregrip, Wire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemovorous the Invincible (Mayhem 6+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reload changes element, heavy splash damage but increased Spread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eternal Guardian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heckle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grip, Hammer, Mag, Scope, Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scourge the Invincible Martyr (Mayhem 6+)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triple FFYL Duration, 3 round burst with 2 projectiles, shots have slight aim assist</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gub</t>
   </si>
   <si>
@@ -559,6 +589,21 @@
     <t xml:space="preserve">+35% Corrosive Resistance and +35% Corrosive Damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Bonus Package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kryll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 Link parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruiner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns 8 MIRVs on detonation, which then spawn another 5 MIRV for each other grenade</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sham</t>
   </si>
   <si>
@@ -593,6 +638,18 @@
   </si>
   <si>
     <t xml:space="preserve">+40% Bullet Reflection, +525% Bullet Reflect Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amalgam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Secondary Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawns with 3 additional passives</t>
   </si>
 </sst>
 </file>
@@ -728,7 +785,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,6 +847,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,13 +931,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
@@ -1569,130 +1630,130 @@
         <v>148</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>149</v>
+        <v>15</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>149</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="G31" s="10" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>155</v>
+      </c>
       <c r="G32" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10" t="s">
-        <v>157</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>158</v>
+      <c r="A34" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
     <row r="37" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1705,97 +1766,187 @@
         <v>173</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="G37" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="10" t="s">
+      <c r="G40" s="10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E40" s="10" t="s">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E41" s="10" t="s">
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
-        <v>190</v>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
+++ b/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
   <si>
     <t xml:space="preserve">NEW GUN</t>
   </si>
@@ -463,12 +463,12 @@
     <t xml:space="preserve">Shots connect to enemies, +50% Melee Damage, higher Status Chance and Damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Lucent Prism</t>
+  </si>
+  <si>
     <t xml:space="preserve">Freeman</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucent Prism</t>
-  </si>
-  <si>
     <t xml:space="preserve">Foregrip, Wire</t>
   </si>
   <si>
@@ -493,39 +493,6 @@
     <t xml:space="preserve">Triple FFYL Duration, 3 round burst with 2 projectiles, shots have slight aim assist</t>
   </si>
   <si>
-    <t xml:space="preserve">Gub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gargoyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same parts as Gargoyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same parts as Lyuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bullets split immediately instead of after 0.225 seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junkrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same parts as Mechanic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+200% Vehicle stats instead of +100%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gearbox Magnum</t>
   </si>
   <si>
@@ -535,6 +502,51 @@
     <t xml:space="preserve">Same parts as Girth Blaster Elite</t>
   </si>
   <si>
+    <t xml:space="preserve">Executive Decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sleeping Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Sleeping Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10x projectiles, heavy splash damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilisk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splinter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Splinter except Mag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lasodactyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shots are both NE and Shock, Full Auto, Critical hits ricochet 3 bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boom Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Spade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waylon Hurd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 round burst, much higher damage, increased Splash Damage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Judith</t>
   </si>
   <si>
@@ -565,18 +577,6 @@
     <t xml:space="preserve">+35% Shock Resistance and +35% Shock Damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Love Thumper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back Ham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same parts as Back Ham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee attacks generate Novas on hit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Venom</t>
   </si>
   <si>
@@ -614,18 +614,6 @@
   </si>
   <si>
     <t xml:space="preserve">Double Cooldown, +25% Movement Speed, +25% Damage Dealt, +25% Damage Reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moxxi’s Blood Rush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moxxi’s Endowment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Same parts as Moxxi’s Endowment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+10% Health Regen, Doubles Health</t>
   </si>
   <si>
     <t xml:space="preserve">Broken Mirror</t>
@@ -659,7 +647,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -688,6 +676,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -785,7 +780,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,6 +834,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -931,13 +946,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G45" activeCellId="0" sqref="G45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
@@ -1308,26 +1323,26 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="9" t="s">
+      <c r="E17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="17" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1513,26 +1528,26 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="17" t="s">
         <v>130</v>
       </c>
     </row>
@@ -1622,54 +1637,54 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="32" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
+    <row r="32" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="17" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="19" t="s">
         <v>157</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1690,7 +1705,7 @@
       </c>
     </row>
     <row r="34" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="12" t="s">
         <v>160</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1705,248 +1720,212 @@
       <c r="E34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="G34" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="8" t="s">
         <v>165</v>
       </c>
+      <c r="B35" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="C35" s="9" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F35" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="G35" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>168</v>
+      <c r="A36" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>173</v>
+      </c>
       <c r="G36" s="10" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="12" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>182</v>
+      <c r="A39" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="G39" s="10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>186</v>
+      <c r="A40" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>192</v>
-      </c>
+      <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>195</v>
+      <c r="A42" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>199</v>
+      <c r="A43" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>203</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="45" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
+++ b/RadiantArin/BL3 Radiance Mod Weapon Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="215">
   <si>
     <t xml:space="preserve">NEW GUN</t>
   </si>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Digby’s Smooth Tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Same parts as Digby</t>
+    <t xml:space="preserve">All parts except Mag</t>
   </si>
   <si>
     <t xml:space="preserve">Junpai Goat Eater (mission reward removed)</t>
@@ -508,7 +508,7 @@
     <t xml:space="preserve">Sleeping Giant</t>
   </si>
   <si>
-    <t xml:space="preserve">Same parts as Sleeping Giant</t>
+    <t xml:space="preserve">All parts</t>
   </si>
   <si>
     <t xml:space="preserve">One Punch</t>
@@ -553,13 +553,40 @@
     <t xml:space="preserve">Amazing Grace</t>
   </si>
   <si>
-    <t xml:space="preserve">Same parts as Amazing Grace</t>
+    <t xml:space="preserve">Grip, Hammer, Scope</t>
   </si>
   <si>
     <t xml:space="preserve">Jabbermogwai (also from mission reward)</t>
   </si>
   <si>
     <t xml:space="preserve">Crits return 1 to magazine and ricochet 2, 3 projectiles per shot, +50% Crit Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poinsettia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same parts as Binary Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dam, WTF (Water Treatment Facility)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 projectiles per shot, killing enemies grants +1 projectile and burst count, effect resets when killing Badass or Boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasilar’s Gleam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creeping Death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother of Grogans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 projectiles per shot, increased damage and splash radius</t>
   </si>
   <si>
     <t xml:space="preserve">Jolt</t>
@@ -946,13 +973,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
@@ -960,7 +987,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="94.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="105.5"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1285,7 +1312,7 @@
         <v>73</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>74</v>
@@ -1712,7 +1739,7 @@
         <v>161</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>162</v>
@@ -1781,7 +1808,7 @@
         <v>176</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>177</v>
@@ -1797,10 +1824,10 @@
       </c>
     </row>
     <row r="38" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="8" t="s">
         <v>181</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1810,7 +1837,7 @@
         <v>182</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>183</v>
@@ -1820,37 +1847,37 @@
       </c>
     </row>
     <row r="39" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="8" t="s">
         <v>186</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="40" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>190</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>191</v>
@@ -1866,66 +1893,112 @@
       </c>
     </row>
     <row r="41" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="9" t="s">
+        <v>124</v>
+      </c>
       <c r="G41" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>201</v>
+      </c>
       <c r="G42" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="21" t="s">
         <v>203</v>
       </c>
+      <c r="B43" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="C43" s="10" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
